--- a/data/income_statement/3digits/total/104_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/104_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>104-Manufacture of vegetable and animal oils and fats</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>104-Manufacture of vegetable and animal oils and fats</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>8989162.18182</v>
@@ -959,73 +865,83 @@
         <v>14205849.72547</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>15580064.60659</v>
+        <v>15580072.10659</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>15832636.20819</v>
+        <v>16799834.08773</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>18257006.61869</v>
+        <v>18470440.10044</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>16671181.71402</v>
+        <v>19213305.52135</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>19492543.71861</v>
+        <v>21016532.08819</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>24103773.5426</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>27524195.22838</v>
+        <v>27528313.72611</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>34579447.61139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>34673203.26625</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>44676844.25</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>7677043.52614</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>8659075.798350001</v>
+        <v>8659075.798349999</v>
       </c>
       <c r="E6" s="48" t="n">
         <v>12021295.12744</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>12761646.18466</v>
+        <v>12761653.68466</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>12365768.01822</v>
+        <v>13236954.43695</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>13972900.29109</v>
+        <v>14142295.07553</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>13569491.56926</v>
+        <v>15598513.44067</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>15421500.81696</v>
+        <v>16899221.99592</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>19531706.82463</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>22163156.76901</v>
+        <v>22165038.44765</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>29084166.07099</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>29175470.44833</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>36068829.841</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>1210861.18254</v>
@@ -1040,31 +956,36 @@
         <v>2651786.71397</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>3207088.1186</v>
+        <v>3299195.76349</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>3992891.15852</v>
+        <v>4035376.88699</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>2939384.62804</v>
+        <v>3423718.34693</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>3888128.99524</v>
+        <v>3926402.58752</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>4355732.25179</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>5043510.253520001</v>
+        <v>5045746.94227</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>5221118.447999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>5222910.93784</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>8175314.931</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>101257.47314</v>
@@ -1079,34 +1000,39 @@
         <v>166631.70796</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>259780.07137</v>
+        <v>263683.88729</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>291215.16908</v>
+        <v>292768.13792</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>162305.51672</v>
+        <v>191073.73375</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>182913.90641</v>
+        <v>190907.50475</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>216334.46618</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>317528.20585</v>
+        <v>317528.33619</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>274163.0924</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>274821.88008</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>432699.478</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>675219.09502</v>
+        <v>675219.0950200001</v>
       </c>
       <c r="D9" s="47" t="n">
         <v>485020.31192</v>
@@ -1118,16 +1044,16 @@
         <v>688278.17024</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>555170.6989600001</v>
+        <v>756389.4258399999</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>731905.7970899999</v>
+        <v>733502.42495</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>793343.5368299999</v>
+        <v>845302.89926</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>869538.7272</v>
+        <v>977134.5961199999</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>1149042.0257</v>
@@ -1136,13 +1062,18 @@
         <v>1438431.5495</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1804011.95004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1804088.26148</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1939848.602</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>82620.91088</v>
@@ -1151,22 +1082,22 @@
         <v>88292.98546</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>93024.2467</v>
+        <v>93024.24669999999</v>
       </c>
       <c r="F10" s="48" t="n">
         <v>117938.27354</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>98658.32042999999</v>
+        <v>106391.67165</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>110445.95231</v>
+        <v>110974.38217</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>140052.42476</v>
+        <v>149861.72557</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>159732.63857</v>
+        <v>168809.51289</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>227116.91381</v>
@@ -1175,13 +1106,18 @@
         <v>257935.42935</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>271525.19187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>271601.50331</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>361411.056</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>573013.25746</v>
@@ -1190,22 +1126,22 @@
         <v>380781.62306</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>447199.5834999999</v>
+        <v>447199.5835000001</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>549064.59078</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>438018.55725</v>
+        <v>631503.93291</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>597570.2264500001</v>
+        <v>598638.42445</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>628315.5244</v>
+        <v>669238.5983099999</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>676952.38212</v>
+        <v>775471.3767200001</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>878306.13549</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>1451684.17668</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>1499806.377</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>19584.92668</v>
@@ -1241,7 +1182,7 @@
         <v>23889.61833</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>24975.58767</v>
+        <v>26202.57538</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>32853.70651</v>
@@ -1255,14 +1196,19 @@
       <c r="M12" s="48" t="n">
         <v>80802.58149</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>78631.16899999999</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>8313943.086800002</v>
+        <v>8313943.086800001</v>
       </c>
       <c r="D13" s="47" t="n">
         <v>9552428.23598</v>
@@ -1271,40 +1217,45 @@
         <v>13655622.13782</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>14891786.43635</v>
+        <v>14891793.93635</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>15277465.50923</v>
+        <v>16043444.66189</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>17525100.8216</v>
+        <v>17736937.67549</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>15877838.17719</v>
+        <v>18368002.62209</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>18623004.99141</v>
+        <v>20039397.49207</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>22954731.5169</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>26085763.67888</v>
+        <v>26089882.17661</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>32775435.66135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>32869115.00477</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>42736995.648</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>7624877.362240001</v>
+        <v>7624877.36224</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>8752656.229349999</v>
+        <v>8752656.229350001</v>
       </c>
       <c r="E14" s="47" t="n">
         <v>12485842.51394</v>
@@ -1313,37 +1264,42 @@
         <v>13789981.77684</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>14115639.70303</v>
+        <v>14803582.97418</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>16139064.04386</v>
+        <v>16325888.58827</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>14341581.49066</v>
+        <v>16601778.6872</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>16998070.06149</v>
+        <v>18246564.10379</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>20901420.02898</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>23152763.87309</v>
+        <v>23156553.15428</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>29542026.67694</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>29631229.97348</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>37973309.823</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>4969813.61885</v>
+        <v>4969813.618849999</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>5789154.667410001</v>
+        <v>5789154.66741</v>
       </c>
       <c r="E15" s="48" t="n">
         <v>9236527.425930001</v>
@@ -1352,31 +1308,36 @@
         <v>10488150.95114</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>10300005.41745</v>
+        <v>10921720.12943</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>11456271.46586</v>
+        <v>11636128.36526</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>11245065.56719</v>
+        <v>12698906.87217</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>13190860.71367</v>
+        <v>14173036.52598</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>15609907.25034</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>17558697.65834</v>
+        <v>17558828.7046</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>22294148.67587</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>22670357.30622</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>29298010.863</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>2184497.24465</v>
@@ -1391,76 +1352,86 @@
         <v>2827364.48397</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>3169924.10816</v>
+        <v>3231503.78322</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>4276367.2038</v>
+        <v>4283200.8446</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2642519.97568</v>
+        <v>3432192.68153</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>3408165.90114</v>
+        <v>3522615.73761</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>4698560.77067</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>4704091.0562</v>
+        <v>4707684.86471</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>5949932.162699999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>5957962.10867</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>7649538.026</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>52898.64743</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>69282.9072</v>
+        <v>69282.90719999999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>64303.48023</v>
+        <v>64303.48022999999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>85559.15057</v>
+        <v>85559.15057000001</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>87630.00675</v>
+        <v>87639.09435</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>90128.68393</v>
+        <v>90129.14810999999</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>101530.01501</v>
+        <v>116697.99067</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>92052.41544999999</v>
+        <v>105138.54012</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>117556.65632</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>210627.64706</v>
+        <v>210667.99854</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>557881.1616700001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>262828.39234</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>346590.717</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>417667.8513099999</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>338870.0503599999</v>
+        <v>338870.05036</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>438888.29883</v>
@@ -1469,31 +1440,36 @@
         <v>388907.19116</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>558080.17067</v>
+        <v>562719.96718</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>316296.69027</v>
+        <v>316430.2302999999</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>352465.93278</v>
+        <v>353981.14283</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>306991.03123</v>
+        <v>445773.30008</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>475395.35165</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>679347.5114900001</v>
+        <v>679371.58643</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>740064.6767000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>740082.16625</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>679170.2169999999</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>689065.7245600001</v>
@@ -1505,73 +1481,83 @@
         <v>1169779.62388</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1101804.65951</v>
+        <v>1101812.15951</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1161825.8062</v>
+        <v>1239861.68771</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1386036.77774</v>
+        <v>1411049.08722</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1536256.68653</v>
+        <v>1766223.93489</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1624934.92992</v>
+        <v>1792833.38828</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>2053311.48792</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2932999.80579</v>
+        <v>2933329.02233</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>3233408.98441</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>3237885.03129</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>4763685.825</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>547814.31518</v>
+        <v>547814.3151799999</v>
       </c>
       <c r="D20" s="47" t="n">
         <v>594171.34973</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>706681.1366900001</v>
+        <v>706681.13669</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>793883.9220499999</v>
+        <v>793885.4366700001</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>762776.0032899999</v>
+        <v>811364.2798400002</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>864560.69888</v>
+        <v>883157.2056100001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>852889.80529</v>
+        <v>973080.61099</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>969012.83604</v>
+        <v>1104818.99912</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1276853.61254</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1374531.50837</v>
+        <v>1377626.83686</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1620494.58233</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1625812.81857</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2031785.354</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>6126.121109999999</v>
@@ -1586,31 +1572,36 @@
         <v>11912.6851</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>12575.37857</v>
+        <v>13094.93193</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>11509.64692</v>
+        <v>12186.21823</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>11661.65801</v>
+        <v>12503.38031</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>6946.03391</v>
+        <v>14232.89896</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>15355.84521</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>6384.907699999999</v>
+        <v>6384.907700000002</v>
       </c>
       <c r="M21" s="48" t="n">
         <v>14886.3951</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>10813.13</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>314756.41366</v>
@@ -1625,31 +1616,36 @@
         <v>479947.06981</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>443342.05833</v>
+        <v>479316.4015399999</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>499801.98308</v>
+        <v>513024.31862</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>484878.31399</v>
+        <v>554852.9793400001</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>558093.9494200001</v>
+        <v>629093.67499</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>737726.1753100001</v>
+        <v>737726.17531</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>743543.4365</v>
+        <v>743711.75284</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>950894.99902</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>951303.3187599999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1232166.521</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>226931.78041</v>
@@ -1661,34 +1657,39 @@
         <v>267643.70703</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>302024.16714</v>
+        <v>302025.68176</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>306858.56639</v>
+        <v>318952.94637</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>353249.06888</v>
+        <v>357946.66876</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>356349.83329</v>
+        <v>405724.25134</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>403972.85271</v>
+        <v>461492.42517</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>523771.59202</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>624603.16417</v>
+        <v>627530.17632</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>654713.1882100001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>659623.10471</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>788805.703</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>141251.40938</v>
@@ -1697,43 +1698,48 @@
         <v>205600.6569</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>463098.4871900001</v>
+        <v>463098.48719</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>307920.73746</v>
+        <v>307926.72284</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>399049.80291</v>
+        <v>428497.40787</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>521476.0788599999</v>
+        <v>527891.88161</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>683366.88124</v>
+        <v>793143.3239</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>655922.0938799999</v>
+        <v>688014.38916</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>776457.87538</v>
+        <v>776457.8753799999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1558468.29742</v>
+        <v>1555702.18547</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1612914.40208</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1612072.21272</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2731900.471</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>786728.3964399999</v>
+        <v>786728.39644</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>689183.1804299999</v>
+        <v>689183.1804300001</v>
       </c>
       <c r="E25" s="47" t="n">
         <v>1007053.17476</v>
@@ -1742,31 +1748,36 @@
         <v>1172034.65243</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>465697.19281</v>
+        <v>472468.357</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>717135.28948</v>
+        <v>729643.27786</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>800101.8376300001</v>
+        <v>1023567.04478</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1169460.44178</v>
+        <v>1204826.49946</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>1198928.27411</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2489842.76278</v>
+        <v>2498627.66397</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1669664.02925</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1671353.19105</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>4605092.701</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>3956.28033</v>
@@ -1787,10 +1798,10 @@
         <v>15465.95408</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>7266.225909999999</v>
+        <v>7283.528749999999</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>9567.559740000001</v>
+        <v>15885.34574</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>17388.60426</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>14707.03847</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>10236.117</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>295529.71498</v>
@@ -1829,7 +1845,7 @@
         <v>513.45573</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>0</v>
+        <v>500.55506</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>891.53787</v>
@@ -1840,17 +1856,22 @@
       <c r="M27" s="48" t="n">
         <v>739.48519</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>4164.428</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>54884.04807</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>50871.34308000001</v>
+        <v>50871.34308</v>
       </c>
       <c r="E28" s="48" t="n">
         <v>50903.33413</v>
@@ -1859,31 +1880,36 @@
         <v>50751.284</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>44191.14803</v>
+        <v>44536.71383</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>70270.23895999999</v>
+        <v>70459.60248999999</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>66543.32388</v>
+        <v>71082.79306</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>101499.96501</v>
+        <v>116603.40455</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>178545.32797</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>251293.49932</v>
+        <v>252279.6419</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>285867.51186</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>287221.14365</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>244311.099</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>586.00603</v>
@@ -1895,10 +1921,10 @@
         <v>1884.20413</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>87.07001</v>
+        <v>87.07001000000001</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>110.21617</v>
+        <v>215.09931</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>1179.51817</v>
@@ -1907,10 +1933,10 @@
         <v>8994.793379999999</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>4.422269999999999</v>
+        <v>6.078270000000001</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>638.9646700000001</v>
+        <v>638.96467</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>7502.74577</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>13084.43237</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>9268.808999999999</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>6620.74175</v>
@@ -1937,16 +1968,16 @@
         <v>2047.33831</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>986.4907699999999</v>
+        <v>986.49077</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>1222.72582</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>2241.77216</v>
+        <v>2326.17888</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1842.53864</v>
+        <v>1875.64159</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>10421.5953</v>
@@ -1957,17 +1988,22 @@
       <c r="M30" s="48" t="n">
         <v>25964.68859</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>29753.2</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>3588.21858</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>5357.74652</v>
+        <v>5357.746520000001</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>3096.55049</v>
@@ -1982,7 +2018,7 @@
         <v>1984.50893</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>319.91909</v>
+        <v>513.37532</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>129.39909</v>
@@ -1994,13 +2030,18 @@
         <v>19733.29589</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>195827.42722</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>195899.791</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1543827.109</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>307556.40314</v>
@@ -2015,31 +2056,36 @@
         <v>533503.2555</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>302804.24045</v>
+        <v>308721.7328700001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>503887.71457</v>
+        <v>516117.00003</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>607525.55104</v>
+        <v>799654.03668</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>902418.49485</v>
+        <v>904822.4492200001</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>798022.0649999999</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1876791.95152</v>
+        <v>1884082.41951</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>968360.5253400001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>968547.37771</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>2279962.683</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>8315.51866</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>7721.775769999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>4738.747</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0.7785</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>77.59656</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>23.198</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>105690.6864</v>
@@ -2126,37 +2182,42 @@
         <v>93858.84193</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>84973.70199999999</v>
+        <v>84973.702</v>
       </c>
       <c r="F35" s="48" t="n">
         <v>68160.41512000001</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>87188.10642</v>
+        <v>87591.32925</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>119125.33684</v>
+        <v>119214.67623</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>104881.88912</v>
+        <v>131383.97566</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>152546.08531</v>
+        <v>163551.64907</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>186052.8593</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>265696.3256</v>
+        <v>266204.61622</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>157313.54788</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>157389.86174</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>478807.311</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>423868.64403</v>
@@ -2168,34 +2229,39 @@
         <v>573830.06126</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>480456.44989</v>
+        <v>480456.4498899999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>537432.5601600001</v>
+        <v>545782.88324</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>609658.32131</v>
+        <v>622134.9584700001</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>704357.64575</v>
+        <v>1021035.48504</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1120915.48113</v>
+        <v>1128292.4259</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>1065916.80685</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>2778998.87332</v>
+        <v>2783955.20217</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1302236.18953</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1302306.5191</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>5109048.622</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>654.74089</v>
@@ -2207,34 +2273,39 @@
         <v>941.75225</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>9290.783579999998</v>
+        <v>9290.783579999999</v>
       </c>
       <c r="G37" s="48" t="n">
         <v>4113.17001</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>719.79203</v>
+        <v>719.7920300000001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>4399.15073</v>
+        <v>4605.65445</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>495.69008</v>
+        <v>1562.07541</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>6581.919169999999</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>14035.22182</v>
+        <v>14035.30682</v>
       </c>
       <c r="M37" s="48" t="n">
         <v>5181.07759</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>6910.615</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>7047.04342</v>
@@ -2249,16 +2320,16 @@
         <v>18209.18759</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>13822.45934</v>
+        <v>13858.87535</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>9873.96471</v>
+        <v>10252.31907</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>18640.14573</v>
+        <v>32420.24318</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>25769.02229</v>
+        <v>27653.75742</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>12329.93266</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>31104.66781</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>60948.597</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>2441.34244</v>
@@ -2306,13 +2382,18 @@
         <v>13940.44492</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>70519.15362000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>70519.15361999998</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>1652996.784</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>339953.18693</v>
@@ -2327,31 +2408,36 @@
         <v>387743.32278</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>429734.8314499999</v>
+        <v>437409.7101</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>520376.29695</v>
+        <v>532367.6124099999</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>631329.8289000001</v>
+        <v>917701.35335</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>995111.1404299999</v>
+        <v>998468.7494</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>952222.8174799999</v>
+        <v>952222.81748</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>2490950.41412</v>
+        <v>2495762.4302</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1081222.6522</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1081248.73534</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>2818077.393</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>7895.95854</v>
@@ -2372,7 +2458,7 @@
         <v>3527.52245</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>1581.73047</v>
+        <v>1615.08897</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>2397.51567</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>8187.61192</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>4218.638</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>2.957</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>23.648</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>65873.41481</v>
@@ -2444,31 +2540,36 @@
         <v>53424.63052000001</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>70833.42155</v>
+        <v>71472.44997</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>73689.17802000001</v>
+        <v>73796.14535999999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>47806.78201</v>
+        <v>64093.13718000001</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>95712.96223</v>
+        <v>96781.17757000001</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>90141.49371000001</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>181025.19963</v>
+        <v>181169.4274</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>106021.02639</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>106065.27282</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>565872.947</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>288142.45534</v>
@@ -2477,37 +2578,42 @@
         <v>312555.88629</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>694934.4970500001</v>
+        <v>694934.49705</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>288360.45624</v>
+        <v>288371.95169</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>345975.64536</v>
+        <v>355180.20489</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>394106.65222</v>
+        <v>409780.35398</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>535886.65017</v>
+        <v>578861.8171399999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>633870.34942</v>
+        <v>649031.78883</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>663033.8236299999</v>
+        <v>663033.82363</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1206010.18594</v>
+        <v>1206338.38424</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1247297.46433</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1252116.92951</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1262495.923</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>173109.4677</v>
@@ -2522,31 +2628,36 @@
         <v>210437.90963</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>309081.67054</v>
+        <v>318281.41464</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>358902.96361</v>
+        <v>374574.66566</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>494835.09246</v>
+        <v>537810.2594300001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>599402.2175099999</v>
+        <v>613352.49769</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>631766.9823200001</v>
+        <v>631766.98232</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1086585.57372</v>
+        <v>1086905.35868</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1072210.50439</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1077032.45939</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1083475.988</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>115032.98764</v>
@@ -2558,34 +2669,39 @@
         <v>401739.04893</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>77922.54660999999</v>
+        <v>77934.04206000001</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>36893.97482</v>
+        <v>36898.79025</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>35203.68861</v>
+        <v>35205.68832</v>
       </c>
       <c r="I46" s="48" t="n">
         <v>41051.55771</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>34468.13191</v>
+        <v>35679.29114</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>31266.84131</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>119424.61222</v>
+        <v>119433.02556</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>175086.95994</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>175084.47012</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>179019.935</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>215968.70645</v>
@@ -2597,79 +2713,89 @@
         <v>201387.10364</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>711138.4837599999</v>
+        <v>711132.97369</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-18661.2098</v>
+        <v>2.676740000000223</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>234846.39481</v>
+        <v>225619.84702</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>243224.4229499999</v>
+        <v>216813.0665</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>70596.70511</v>
+        <v>115516.67389</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>246435.51901</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>63302.00094000001</v>
+        <v>64036.26303</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>733044.77747</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>729001.9551600001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>965448.627</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>32848.72586</v>
+        <v>32848.72586000001</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>87523.11117999999</v>
+        <v>87523.11118000001</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>40445.10191999999</v>
+        <v>40445.10192</v>
       </c>
       <c r="F48" s="47" t="n">
         <v>47024.81621</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>117999.56267</v>
+        <v>131358.05738</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>106577.4356</v>
+        <v>106895.03107</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>57173.07319</v>
+        <v>66685.78677999999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>74495.90425000001</v>
+        <v>80746.86698000001</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>276978.27</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>512482.59176</v>
+        <v>513396.1480700001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>158406.46151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>159232.87593</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>311937.951</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>2020.0761</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>485.4631800000001</v>
+        <v>485.4631799999999</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>1065.35839</v>
@@ -2678,16 +2804,16 @@
         <v>652.47987</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>4447.706270000001</v>
+        <v>17498.3647</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>13044.88052</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1792.72103</v>
+        <v>1824.17495</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>1074.8939</v>
+        <v>1411.97059</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>3155.3005</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>1986.57711</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>3780.093</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>30828.64976</v>
@@ -2714,40 +2845,45 @@
         <v>39379.74353</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>46372.33634</v>
+        <v>46372.33633999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>113551.8564</v>
+        <v>113859.69268</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>93532.55507999998</v>
+        <v>93850.15054999999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>55380.35216</v>
+        <v>64861.61183</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>73421.01035000001</v>
+        <v>79334.89638999999</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>273822.9695</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>510870.5315</v>
+        <v>511784.0878099999</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>156419.8844</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>157246.29882</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>308157.858</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>143860.04878</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>44750.45988</v>
+        <v>44750.45987999999</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>107220.66246</v>
@@ -2756,31 +2892,36 @@
         <v>69708.31174999999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>67121.19011</v>
+        <v>68841.04190000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>79797.34776999999</v>
+        <v>80648.03701999999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>160175.15864</v>
+        <v>167463.08312</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>212282.73595</v>
+        <v>225559.56068</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>186174.53581</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>158407.18275</v>
+        <v>160647.82202</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>105728.77489</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>106288.31836</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>165417.346</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>11270.05758</v>
@@ -2801,64 +2942,74 @@
         <v>17346.66954</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>20817.05444</v>
+        <v>23566.89597</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>31682.12131</v>
+        <v>40531.13832</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>40257.70515</v>
+        <v>40257.70515000001</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>41639.95082000001</v>
+        <v>43509.92348</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>42688.84731</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>42768.13172</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>51138.016</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>107199.86969</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>7516.307380000001</v>
+        <v>7516.30738</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>3264.78281</v>
+        <v>3264.782810000001</v>
       </c>
       <c r="F53" s="48" t="n">
         <v>3801.48084</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>7134.271420000001</v>
+        <v>7554.81993</v>
       </c>
       <c r="H53" s="48" t="n">
         <v>21830.56142</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>10658.38562</v>
+        <v>12345.08926</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>16960.72991</v>
+        <v>16981.48758</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>20586.61468</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>11425.69496</v>
+        <v>11425.78186</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>16252.30116</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>16252.73916</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>17250.765</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>25390.12151</v>
@@ -2867,37 +3018,42 @@
         <v>23891.58216</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>87826.49461000001</v>
+        <v>87826.49460999999</v>
       </c>
       <c r="F54" s="48" t="n">
         <v>50810.73645</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>40787.69881</v>
+        <v>42087.00208999999</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>40620.11680999999</v>
+        <v>41470.80606</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>128699.71858</v>
+        <v>131551.09789</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>163639.88473</v>
+        <v>168046.93478</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>125330.21598</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>105341.53697</v>
+        <v>105712.11668</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>46787.62642</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>47267.44748</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>97028.565</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>104957.38353</v>
@@ -2909,34 +3065,39 @@
         <v>134611.5431</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>688454.9882200001</v>
+        <v>688449.47815</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>32217.16276000001</v>
+        <v>62519.69222</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>261626.48264</v>
+        <v>251866.84107</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>140222.3375</v>
+        <v>116035.77016</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-67190.12659</v>
+        <v>-29296.01981</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>337239.2532</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>417377.40995</v>
+        <v>416784.5890800001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>785722.4640899999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>781946.5127300001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1111969.232</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>19017.72123</v>
@@ -2951,67 +3112,75 @@
         <v>39584.22874999999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>24955.93906</v>
+        <v>29495.49194</v>
       </c>
       <c r="H56" s="47" t="n">
         <v>34472.36333</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>37461.87241</v>
+        <v>38188.05264</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>42244.86801999999</v>
+        <v>46333.44280999999</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>52057.66044000001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>104671.82227</v>
+        <v>104760.44326</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>135217.88545</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>135646.34089</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>203428.876</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>85939.6623</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>316687.9813600001</v>
+        <v>316687.98136</v>
       </c>
       <c r="E57" s="47" t="n">
         <v>98149.12956999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>648870.7594699999</v>
+        <v>648865.2494000001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>7261.223699999999</v>
+        <v>33024.20028</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>227154.11931</v>
+        <v>217394.47774</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>102760.46509</v>
+        <v>77847.71751999999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-109434.99461</v>
+        <v>-75629.46261999999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>285181.5927599999</v>
+        <v>285181.59276</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>312705.58768</v>
+        <v>312024.14582</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>650504.5786400001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>646300.1718400001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>908540.356</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>812</v>
@@ -3041,31 +3213,34 @@
         <v>860</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>894</v>
+        <v>899</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>887</v>
+        <v>913</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>934</v>
+        <v>968</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>995</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>927</v>
+        <v>1034</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1103</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>